--- a/variations/Camden/V0.2/BOM-SPARC-Camden-v0.2.xlsx
+++ b/variations/Camden/V0.2/BOM-SPARC-Camden-v0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6D54B0-68D8-48B9-B7FD-4CE35A464128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4948E9E3-1F9A-4168-B6E9-8091640239FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Total Cost</t>
   </si>
@@ -66,33 +66,6 @@
   </si>
   <si>
     <t>https://www.ebay.com/itm/185777140664?_trkparms=amclksrc%3DITM%26aid%3D1110006%26algo%3DHOMESPLICE.SIM%26ao%3D1%26asc%3D287247%26meid%3D93c1d507459749bc824a3ce37313f90d%26pid%3D101875%26rk%3D3%26rkt%3D4%26sd%3D226422738360%26itm%3D185777140664%26pmt%3D1%26noa%3D0%26pg%3D2332490%26algv%3DSimVIDwebV3WithCPCExpansionEmbeddingSearchQuerySemanticBroadMatchSingularityRecallReplaceKnnV4WithVectorDbNsOptHotPlRecallCIICentroidCoviewCPCAuto%26brand%3DUnbranded&amp;_trksid=p2332490.c101875.m1851&amp;itmprp=cksum%3A18577714066493c1d507459749bc824a3ce37313f90d%7Cenc%3AAQAKAAABgG96wQ16jds4VFcrhy1F3d4mbwZUJI9Fs%252BgdXYAHIzlX2e3YaNh7x%252BEnKA3G%252BCqSl1Xn4McfcWFK1GytmS2qxJ87mtE8Gm3iR1Ja4WBwh0hNHJrJx3Ki5mp04ow4CO7lP%252BooCybZDDU%252BbbSwmg7CbTin%252BBzBzbCYVnbjvyQAHu6--HI4MB7SvJl5IJqlyvomgoLMlgT6qAJzX0SANJhty2f5YzLv2iQRrcjkpB9yWvuQT%252FD11f5slI2e7QWDMHGTFtcZ50wqMvw%252BJ2RmlUxIXEvTh0LqkZAB7va6mk9vTJtc7Drox1ThtDB19WG5bIW2fHfgLY1uzbmW3a%252Fnm3Xq5q2ZFEfZuha4INRc5aLYqwnMqROltXNjasF%252BOJ2XE8eHi%252FOvOstYWuF0B9daNxq2df0CZ%252FJRsrEsp4L2Uu1GspH%252BFMbSl%252BZrFIdsnBOQo%252F2rJWZSFwMfO%252FC%252FTJvfUez7OsduubS7DzjHJkVpk4KK0CMvuoyIlnVJq3LxYcq7By8laA%253D%253D%7Campid%3APL_CLK%7Cclp%3A2332490&amp;itmmeta=01JXJF02RJ2SD81DKBZE32WGPJ</t>
-  </si>
-  <si>
-    <t>https://www.ebay.com/itm/183678893844?chn=ps&amp;mkevt=1&amp;mkcid=28&amp;google_free_listing_action=view_item&amp;srsltid=AfmBOoo96aypxc06QE5iWsXKjoF1TpPWEfeebvqknfWjlxNBuI2BkfrFlCE&amp;gQT=2</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/product/INA219/part-details/INA219BIDR</t>
-  </si>
-  <si>
-    <t>https://www.ebay.com/itm/192312930293?chn=ps&amp;mkevt=1&amp;mkcid=28&amp;google_free_listing_action=view_item&amp;srsltid=AfmBOoqR3Oigp1kS_GZXXLiCTeaArw929kUvWVy0fyYHeb0FzpclMz12k3M</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/sparkfun-electronics/11855/5271297?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=20243136172&amp;gbraid=0AAAAADrbLli4_Ap0H678W2amsXvkFFD8z&amp;gclid=EAIaIQobChMI3euy76jsjQMVFDQIBR3Brw42EAQYAiABEgIY4fD_BwE</t>
-  </si>
-  <si>
-    <t>https://business.walmart.com/ip/Gigastone-8GB-Micro-SD-Card-FHD-Video-UHS-I-U1-Class-10-Surveillance-Security-Action-Cameras-Drone-Dash-Cams-5-Pack-5x8GB-GS-2IN1C1008GBX5-B/581920075</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Microchip-Technology/MIC5239-5.0YS-TR?qs=U6T8BxXiZAVR02O8mv9RNQ%3D%3D&amp;srsltid=AfmBOor-rXidGcHAi74_wFwNnmEqDxdsndW6D2fPEiDv2uNypmXTMkj8</t>
-  </si>
-  <si>
-    <t>https://www.cdwg.com/product/transcend-flash-memory-card-8-gb-microsd/3181432?pfm=srh</t>
-  </si>
-  <si>
-    <t>https://www.cdwg.com/product/kingston-industrial-flash-memory-card-8-gb-microsdhc-uhs-i/6669743?pfm=srh</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Gigastone-10-Pack-Surveillance-Security-Action/dp/B0876H387X/ref=asc_df_B0876H387X?mcid=a36b7487c2ef3bf38be475383d962644&amp;hvocijid=8673258576435803325-B0876H387X-&amp;hvexpln=73&amp;tag=hyprod-20&amp;linkCode=df0&amp;hvadid=721245378154&amp;hvpos=&amp;hvnetw=g&amp;hvrand=8673258576435803325&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9198699&amp;hvtargid=pla-2281435181978&amp;th=1</t>
   </si>
   <si>
     <t>Vendor 4</t>
@@ -789,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,21 +807,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -861,7 +834,7 @@
         <v>82.2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
@@ -870,10 +843,10 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -882,20 +855,20 @@
         <v>9.99</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E33" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E32" si="0">C3*D3</f>
         <v>9.99</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -908,7 +881,7 @@
         <v>234.98</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
@@ -917,10 +890,10 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -933,17 +906,17 @@
         <v>3427</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -956,19 +929,17 @@
         <v>3048</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -981,19 +952,17 @@
         <v>2212</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1006,15 +975,15 @@
         <v>56.97</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1027,19 +996,17 @@
         <v>90.99</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1052,19 +1019,17 @@
         <v>162.72</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1077,16 +1042,16 @@
         <v>46.16</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1099,16 +1064,16 @@
         <v>14.52</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1121,15 +1086,15 @@
         <v>8.98</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1142,28 +1107,20 @@
         <v>149.78</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -1176,16 +1133,16 @@
         <v>20.34</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
@@ -1198,16 +1155,16 @@
         <v>8.4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -1220,16 +1177,16 @@
         <v>24.06</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1242,16 +1199,16 @@
         <v>15.02</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1264,16 +1221,16 @@
         <v>21.27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1286,16 +1243,16 @@
         <v>15.13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1308,16 +1265,16 @@
         <v>29.3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1330,16 +1287,16 @@
         <v>4.09</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1352,16 +1309,16 @@
         <v>147.52000000000001</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
@@ -1374,16 +1331,16 @@
         <v>5.8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1396,16 +1353,16 @@
         <v>1.46</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1418,16 +1375,16 @@
         <v>2195</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1440,16 +1397,16 @@
         <v>99.89</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2">
         <v>10</v>
@@ -1462,16 +1419,16 @@
         <v>69.2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
@@ -1484,16 +1441,16 @@
         <v>145.5</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1506,16 +1463,16 @@
         <v>41.17</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
@@ -1528,16 +1485,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1550,12 +1507,10 @@
         <v>14.65</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1579,7 +1534,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E35" s="6">
         <f>SUM(E2:E34)</f>
@@ -1631,40 +1586,37 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{85148DE2-C5FC-5645-B5BB-41BB837D9E5E}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{50526146-D5B4-5C42-928A-1A4E698E0A66}"/>
-    <hyperlink ref="H14" r:id="rId3" tooltip="https://www.cdwg.com/product/transcend-flash-memory-card-8-gb-microsd/3181432?pfm=srh" xr:uid="{F7564EE8-2A81-B244-AEFD-6DA0DF39B5DC}"/>
-    <hyperlink ref="I14" r:id="rId4" tooltip="https://www.cdwg.com/product/kingston-industrial-flash-memory-card-8-gb-microsdhc-uhs-i/6669743?pfm=srh" xr:uid="{6EBC3D1F-2E28-7641-90A9-14D8B6437048}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{FC65F728-1D6C-4930-9736-CD308A81A115}"/>
-    <hyperlink ref="F4" r:id="rId6" xr:uid="{3FA92BB8-87CB-48DF-80DE-ADB99C5948DA}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{2B925F9B-9EBC-46F8-92CC-B2D2295D9E04}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{D7748C9A-D5A9-4091-9C5F-1C78524E3FEB}"/>
-    <hyperlink ref="F8" r:id="rId9" xr:uid="{BE59E38F-DA22-4ED1-BF36-E84DE0018044}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{843281D0-FA21-4F36-A652-0F07141A7B84}"/>
-    <hyperlink ref="F3" r:id="rId11" xr:uid="{AC5FA834-82E0-404E-B150-C4F68DA38C6A}"/>
-    <hyperlink ref="F9" r:id="rId12" xr:uid="{30A401D7-C620-43B9-9D9E-19B3DC7BF553}"/>
-    <hyperlink ref="F10" r:id="rId13" xr:uid="{9E7C13BC-99F6-4C00-8247-D65DF4039E02}"/>
-    <hyperlink ref="F12" r:id="rId14" xr:uid="{D9870AF0-1C4B-473B-8416-474E754D5E7E}"/>
-    <hyperlink ref="F13" r:id="rId15" xr:uid="{7E2805CC-0B04-4DB0-9F38-3741F75A7D1D}"/>
-    <hyperlink ref="F14" r:id="rId16" xr:uid="{6AF56708-0BAB-42E8-A3AE-FD431334CF6C}"/>
-    <hyperlink ref="F15" r:id="rId17" xr:uid="{F2324ACB-C085-42C4-8640-3C360A4D119E}"/>
-    <hyperlink ref="F16" r:id="rId18" xr:uid="{A4430CD5-3F04-4F39-8FC7-418A2C196358}"/>
-    <hyperlink ref="F17" r:id="rId19" xr:uid="{9135126A-24C0-4A12-968F-F14A3B2136F6}"/>
-    <hyperlink ref="F18" r:id="rId20" xr:uid="{36F5D6E3-807C-49A7-8D30-80566D9949D4}"/>
-    <hyperlink ref="F19" r:id="rId21" xr:uid="{5DBEE37C-590D-4F51-A663-823016400D71}"/>
-    <hyperlink ref="F20" r:id="rId22" xr:uid="{1F94BCB9-4D2C-4C92-8BF0-A4FC479E37E8}"/>
-    <hyperlink ref="F21" r:id="rId23" xr:uid="{6624F982-B428-4251-AA28-31179DCD8937}"/>
-    <hyperlink ref="F22" r:id="rId24" xr:uid="{58E2A489-0714-4655-8748-622D874EF6F8}"/>
-    <hyperlink ref="F23" r:id="rId25" xr:uid="{81E87505-E60E-4515-89EA-9361938F7388}"/>
-    <hyperlink ref="F24" r:id="rId26" xr:uid="{EFDA772F-CC83-4998-A756-1FADE307C734}"/>
-    <hyperlink ref="F25" r:id="rId27" xr:uid="{F81462CE-4E7C-4FAB-8A8E-D305901B6FCF}"/>
-    <hyperlink ref="F27" r:id="rId28" xr:uid="{710F7333-9D6C-454D-889C-03B3C3ED177B}"/>
-    <hyperlink ref="F28" r:id="rId29" xr:uid="{0B3AB74B-6B3E-4207-9645-7AB7D6617AD3}"/>
-    <hyperlink ref="F29" r:id="rId30" xr:uid="{5CF86D47-7D87-4635-9306-B8490C771687}"/>
-    <hyperlink ref="F30" r:id="rId31" display="https://www.digikey.com/en/products/detail/belden-inc/35618-002500/7041945?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=22518541616&amp;gbraid=0AAAAADrbLljEBpjA6o11517XtnCbKLnsR&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19Rsa4nb1dzOV49q-F9Xe7dRzLg9fr09jgomA5Q7py5DmHjVBe4NA0heoaAspGEALw_wcB" xr:uid="{A2DDC80C-6F39-4C44-B776-452B7FA8CAC3}"/>
-    <hyperlink ref="F31" r:id="rId32" xr:uid="{71E7E2F7-3EA3-469E-BDBD-A5E1E2E4F347}"/>
-    <hyperlink ref="F32" r:id="rId33" xr:uid="{F2165E25-79D9-4521-9261-0FF86CB8CEB1}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{FC65F728-1D6C-4930-9736-CD308A81A115}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{3FA92BB8-87CB-48DF-80DE-ADB99C5948DA}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{2B925F9B-9EBC-46F8-92CC-B2D2295D9E04}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{D7748C9A-D5A9-4091-9C5F-1C78524E3FEB}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{BE59E38F-DA22-4ED1-BF36-E84DE0018044}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{843281D0-FA21-4F36-A652-0F07141A7B84}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{AC5FA834-82E0-404E-B150-C4F68DA38C6A}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{30A401D7-C620-43B9-9D9E-19B3DC7BF553}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{9E7C13BC-99F6-4C00-8247-D65DF4039E02}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{D9870AF0-1C4B-473B-8416-474E754D5E7E}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{7E2805CC-0B04-4DB0-9F38-3741F75A7D1D}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{6AF56708-0BAB-42E8-A3AE-FD431334CF6C}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{F2324ACB-C085-42C4-8640-3C360A4D119E}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{A4430CD5-3F04-4F39-8FC7-418A2C196358}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{9135126A-24C0-4A12-968F-F14A3B2136F6}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{36F5D6E3-807C-49A7-8D30-80566D9949D4}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{5DBEE37C-590D-4F51-A663-823016400D71}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{1F94BCB9-4D2C-4C92-8BF0-A4FC479E37E8}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{6624F982-B428-4251-AA28-31179DCD8937}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{58E2A489-0714-4655-8748-622D874EF6F8}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{81E87505-E60E-4515-89EA-9361938F7388}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{EFDA772F-CC83-4998-A756-1FADE307C734}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{F81462CE-4E7C-4FAB-8A8E-D305901B6FCF}"/>
+    <hyperlink ref="F27" r:id="rId25" xr:uid="{710F7333-9D6C-454D-889C-03B3C3ED177B}"/>
+    <hyperlink ref="F28" r:id="rId26" xr:uid="{0B3AB74B-6B3E-4207-9645-7AB7D6617AD3}"/>
+    <hyperlink ref="F29" r:id="rId27" xr:uid="{5CF86D47-7D87-4635-9306-B8490C771687}"/>
+    <hyperlink ref="F30" r:id="rId28" display="https://www.digikey.com/en/products/detail/belden-inc/35618-002500/7041945?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=22518541616&amp;gbraid=0AAAAADrbLljEBpjA6o11517XtnCbKLnsR&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19Rsa4nb1dzOV49q-F9Xe7dRzLg9fr09jgomA5Q7py5DmHjVBe4NA0heoaAspGEALw_wcB" xr:uid="{A2DDC80C-6F39-4C44-B776-452B7FA8CAC3}"/>
+    <hyperlink ref="F31" r:id="rId29" xr:uid="{71E7E2F7-3EA3-469E-BDBD-A5E1E2E4F347}"/>
+    <hyperlink ref="F32" r:id="rId30" xr:uid="{F2165E25-79D9-4521-9261-0FF86CB8CEB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/variations/Camden/V0.2/BOM-SPARC-Camden-v0.2.xlsx
+++ b/variations/Camden/V0.2/BOM-SPARC-Camden-v0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4948E9E3-1F9A-4168-B6E9-8091640239FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF99E11-5D5D-4100-9245-755C08B289FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Total Cost</t>
   </si>
@@ -357,6 +357,15 @@
   </si>
   <si>
     <t>https://www.aliexpress.us/item/3256805148780496.html?gatewayAdapt=glo2usa4itemAdapt</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/AIGNEP-USA-Tee-Nickel-Plated-Brass-1CPF4?opr=ODOH&amp;analytics=FM:Order%20History</t>
+  </si>
+  <si>
+    <t>Tee: Nickel-Plated Brass, 1/4 in x 1/4 in x 1/4 in Fitting Pipe Size, 2 in Overall Lg</t>
+  </si>
+  <si>
+    <t>1/4 in Tee</t>
   </si>
 </sst>
 </file>
@@ -762,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +864,7 @@
         <v>9.99</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E32" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E33" si="0">C3*D3</f>
         <v>9.99</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1513,12 +1522,25 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>6.06</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>12.12</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -1538,7 +1560,7 @@
       </c>
       <c r="E35" s="6">
         <f>SUM(E2:E34)</f>
-        <v>12404.389999999996</v>
+        <v>12416.509999999997</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="5"/>
@@ -1615,8 +1637,10 @@
     <hyperlink ref="F30" r:id="rId28" display="https://www.digikey.com/en/products/detail/belden-inc/35618-002500/7041945?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=22518541616&amp;gbraid=0AAAAADrbLljEBpjA6o11517XtnCbKLnsR&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19Rsa4nb1dzOV49q-F9Xe7dRzLg9fr09jgomA5Q7py5DmHjVBe4NA0heoaAspGEALw_wcB" xr:uid="{A2DDC80C-6F39-4C44-B776-452B7FA8CAC3}"/>
     <hyperlink ref="F31" r:id="rId29" xr:uid="{71E7E2F7-3EA3-469E-BDBD-A5E1E2E4F347}"/>
     <hyperlink ref="F32" r:id="rId30" xr:uid="{F2165E25-79D9-4521-9261-0FF86CB8CEB1}"/>
+    <hyperlink ref="F11" r:id="rId31" xr:uid="{2459F536-6BF7-4F95-8ED6-65EBE68E0306}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{A1AFF2B0-3BCF-4EB1-A5D8-3277D679C9A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/variations/Camden/V0.2/BOM-SPARC-Camden-v0.2.xlsx
+++ b/variations/Camden/V0.2/BOM-SPARC-Camden-v0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF99E11-5D5D-4100-9245-755C08B289FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8BED4D-472A-4E28-8563-DD7C52B7D2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-16320" yWindow="-12765" windowWidth="16440" windowHeight="28440" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Total Cost</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Vendor 3</t>
   </si>
   <si>
-    <t>https://www.ebay.com/itm/254630577493?chn=ps&amp;mkevt=1&amp;mkcid=28&amp;google_free_listing_action=view_item&amp;srsltid=AfmBOorV61PA8LrmcVCLmkRxgli-ic749EmEj9uG3olJqtVqK8C26RwUy3g&amp;gQT=2</t>
-  </si>
-  <si>
-    <t>https://www.ebay.com/itm/185777140664?_trkparms=amclksrc%3DITM%26aid%3D1110006%26algo%3DHOMESPLICE.SIM%26ao%3D1%26asc%3D287247%26meid%3D93c1d507459749bc824a3ce37313f90d%26pid%3D101875%26rk%3D3%26rkt%3D4%26sd%3D226422738360%26itm%3D185777140664%26pmt%3D1%26noa%3D0%26pg%3D2332490%26algv%3DSimVIDwebV3WithCPCExpansionEmbeddingSearchQuerySemanticBroadMatchSingularityRecallReplaceKnnV4WithVectorDbNsOptHotPlRecallCIICentroidCoviewCPCAuto%26brand%3DUnbranded&amp;_trksid=p2332490.c101875.m1851&amp;itmprp=cksum%3A18577714066493c1d507459749bc824a3ce37313f90d%7Cenc%3AAQAKAAABgG96wQ16jds4VFcrhy1F3d4mbwZUJI9Fs%252BgdXYAHIzlX2e3YaNh7x%252BEnKA3G%252BCqSl1Xn4McfcWFK1GytmS2qxJ87mtE8Gm3iR1Ja4WBwh0hNHJrJx3Ki5mp04ow4CO7lP%252BooCybZDDU%252BbbSwmg7CbTin%252BBzBzbCYVnbjvyQAHu6--HI4MB7SvJl5IJqlyvomgoLMlgT6qAJzX0SANJhty2f5YzLv2iQRrcjkpB9yWvuQT%252FD11f5slI2e7QWDMHGTFtcZ50wqMvw%252BJ2RmlUxIXEvTh0LqkZAB7va6mk9vTJtc7Drox1ThtDB19WG5bIW2fHfgLY1uzbmW3a%252Fnm3Xq5q2ZFEfZuha4INRc5aLYqwnMqROltXNjasF%252BOJ2XE8eHi%252FOvOstYWuF0B9daNxq2df0CZ%252FJRsrEsp4L2Uu1GspH%252BFMbSl%252BZrFIdsnBOQo%252F2rJWZSFwMfO%252FC%252FTJvfUez7OsduubS7DzjHJkVpk4KK0CMvuoyIlnVJq3LxYcq7By8laA%253D%253D%7Campid%3APL_CLK%7Cclp%3A2332490&amp;itmmeta=01JXJF02RJ2SD81DKBZE32WGPJ</t>
-  </si>
-  <si>
     <t>Vendor 4</t>
   </si>
   <si>
@@ -366,6 +360,18 @@
   </si>
   <si>
     <t>1/4 in Tee</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/ni/785996-01/15219166</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/ni/786425-01/16648375?s=N4IgTCBcDaIMYCUCSB5AtATgAwFYAsIAugL5A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/ni/779373-01/15219106</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/ni/785185-01/15218920</t>
   </si>
 </sst>
 </file>
@@ -771,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,21 +822,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -843,19 +849,17 @@
         <v>82.2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -868,16 +872,16 @@
         <v>9.99</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -890,19 +894,17 @@
         <v>234.98</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -915,17 +917,19 @@
         <v>3427</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -938,17 +942,19 @@
         <v>3048</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -961,17 +967,19 @@
         <v>2212</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -984,15 +992,15 @@
         <v>56.97</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1005,17 +1013,17 @@
         <v>90.99</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1028,17 +1036,17 @@
         <v>162.72</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1051,16 +1059,16 @@
         <v>46.16</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1073,16 +1081,16 @@
         <v>14.52</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1095,15 +1103,15 @@
         <v>8.98</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1116,7 +1124,7 @@
         <v>149.78</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1126,10 +1134,10 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -1142,16 +1150,16 @@
         <v>20.34</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
@@ -1164,16 +1172,16 @@
         <v>8.4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -1186,16 +1194,16 @@
         <v>24.06</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1208,16 +1216,16 @@
         <v>15.02</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1230,16 +1238,16 @@
         <v>21.27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1252,16 +1260,16 @@
         <v>15.13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1274,16 +1282,16 @@
         <v>29.3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1296,16 +1304,16 @@
         <v>4.09</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1318,16 +1326,16 @@
         <v>147.52000000000001</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
@@ -1340,16 +1348,16 @@
         <v>5.8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1362,16 +1370,16 @@
         <v>1.46</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1384,16 +1392,18 @@
         <v>2195</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1406,16 +1416,16 @@
         <v>99.89</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2">
         <v>10</v>
@@ -1428,16 +1438,16 @@
         <v>69.2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
@@ -1450,16 +1460,16 @@
         <v>145.5</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1472,16 +1482,16 @@
         <v>41.17</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
@@ -1494,16 +1504,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1516,17 +1526,17 @@
         <v>14.65</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -1539,7 +1549,7 @@
         <v>12.12</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,7 +1566,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E35" s="6">
         <f>SUM(E2:E34)</f>
@@ -1607,40 +1617,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{85148DE2-C5FC-5645-B5BB-41BB837D9E5E}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{FC65F728-1D6C-4930-9736-CD308A81A115}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{3FA92BB8-87CB-48DF-80DE-ADB99C5948DA}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{2B925F9B-9EBC-46F8-92CC-B2D2295D9E04}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{D7748C9A-D5A9-4091-9C5F-1C78524E3FEB}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{BE59E38F-DA22-4ED1-BF36-E84DE0018044}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{843281D0-FA21-4F36-A652-0F07141A7B84}"/>
-    <hyperlink ref="F3" r:id="rId8" xr:uid="{AC5FA834-82E0-404E-B150-C4F68DA38C6A}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{30A401D7-C620-43B9-9D9E-19B3DC7BF553}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{9E7C13BC-99F6-4C00-8247-D65DF4039E02}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{D9870AF0-1C4B-473B-8416-474E754D5E7E}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{7E2805CC-0B04-4DB0-9F38-3741F75A7D1D}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{6AF56708-0BAB-42E8-A3AE-FD431334CF6C}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{F2324ACB-C085-42C4-8640-3C360A4D119E}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{A4430CD5-3F04-4F39-8FC7-418A2C196358}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{9135126A-24C0-4A12-968F-F14A3B2136F6}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{36F5D6E3-807C-49A7-8D30-80566D9949D4}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{5DBEE37C-590D-4F51-A663-823016400D71}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{1F94BCB9-4D2C-4C92-8BF0-A4FC479E37E8}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{6624F982-B428-4251-AA28-31179DCD8937}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{58E2A489-0714-4655-8748-622D874EF6F8}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{81E87505-E60E-4515-89EA-9361938F7388}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{EFDA772F-CC83-4998-A756-1FADE307C734}"/>
-    <hyperlink ref="F25" r:id="rId24" xr:uid="{F81462CE-4E7C-4FAB-8A8E-D305901B6FCF}"/>
-    <hyperlink ref="F27" r:id="rId25" xr:uid="{710F7333-9D6C-454D-889C-03B3C3ED177B}"/>
-    <hyperlink ref="F28" r:id="rId26" xr:uid="{0B3AB74B-6B3E-4207-9645-7AB7D6617AD3}"/>
-    <hyperlink ref="F29" r:id="rId27" xr:uid="{5CF86D47-7D87-4635-9306-B8490C771687}"/>
-    <hyperlink ref="F30" r:id="rId28" display="https://www.digikey.com/en/products/detail/belden-inc/35618-002500/7041945?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=22518541616&amp;gbraid=0AAAAADrbLljEBpjA6o11517XtnCbKLnsR&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19Rsa4nb1dzOV49q-F9Xe7dRzLg9fr09jgomA5Q7py5DmHjVBe4NA0heoaAspGEALw_wcB" xr:uid="{A2DDC80C-6F39-4C44-B776-452B7FA8CAC3}"/>
-    <hyperlink ref="F31" r:id="rId29" xr:uid="{71E7E2F7-3EA3-469E-BDBD-A5E1E2E4F347}"/>
-    <hyperlink ref="F32" r:id="rId30" xr:uid="{F2165E25-79D9-4521-9261-0FF86CB8CEB1}"/>
-    <hyperlink ref="F11" r:id="rId31" xr:uid="{2459F536-6BF7-4F95-8ED6-65EBE68E0306}"/>
-    <hyperlink ref="F33" r:id="rId32" xr:uid="{A1AFF2B0-3BCF-4EB1-A5D8-3277D679C9A9}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{FC65F728-1D6C-4930-9736-CD308A81A115}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{3FA92BB8-87CB-48DF-80DE-ADB99C5948DA}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{2B925F9B-9EBC-46F8-92CC-B2D2295D9E04}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{D7748C9A-D5A9-4091-9C5F-1C78524E3FEB}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{BE59E38F-DA22-4ED1-BF36-E84DE0018044}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{843281D0-FA21-4F36-A652-0F07141A7B84}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{AC5FA834-82E0-404E-B150-C4F68DA38C6A}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{30A401D7-C620-43B9-9D9E-19B3DC7BF553}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{9E7C13BC-99F6-4C00-8247-D65DF4039E02}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{D9870AF0-1C4B-473B-8416-474E754D5E7E}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{7E2805CC-0B04-4DB0-9F38-3741F75A7D1D}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{6AF56708-0BAB-42E8-A3AE-FD431334CF6C}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{F2324ACB-C085-42C4-8640-3C360A4D119E}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{A4430CD5-3F04-4F39-8FC7-418A2C196358}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{9135126A-24C0-4A12-968F-F14A3B2136F6}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{36F5D6E3-807C-49A7-8D30-80566D9949D4}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{5DBEE37C-590D-4F51-A663-823016400D71}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{1F94BCB9-4D2C-4C92-8BF0-A4FC479E37E8}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{6624F982-B428-4251-AA28-31179DCD8937}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{58E2A489-0714-4655-8748-622D874EF6F8}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{81E87505-E60E-4515-89EA-9361938F7388}"/>
+    <hyperlink ref="F24" r:id="rId22" xr:uid="{EFDA772F-CC83-4998-A756-1FADE307C734}"/>
+    <hyperlink ref="F25" r:id="rId23" xr:uid="{F81462CE-4E7C-4FAB-8A8E-D305901B6FCF}"/>
+    <hyperlink ref="F27" r:id="rId24" xr:uid="{710F7333-9D6C-454D-889C-03B3C3ED177B}"/>
+    <hyperlink ref="F28" r:id="rId25" xr:uid="{0B3AB74B-6B3E-4207-9645-7AB7D6617AD3}"/>
+    <hyperlink ref="F29" r:id="rId26" xr:uid="{5CF86D47-7D87-4635-9306-B8490C771687}"/>
+    <hyperlink ref="F30" r:id="rId27" display="https://www.digikey.com/en/products/detail/belden-inc/35618-002500/7041945?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=22518541616&amp;gbraid=0AAAAADrbLljEBpjA6o11517XtnCbKLnsR&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19Rsa4nb1dzOV49q-F9Xe7dRzLg9fr09jgomA5Q7py5DmHjVBe4NA0heoaAspGEALw_wcB" xr:uid="{A2DDC80C-6F39-4C44-B776-452B7FA8CAC3}"/>
+    <hyperlink ref="F31" r:id="rId28" xr:uid="{71E7E2F7-3EA3-469E-BDBD-A5E1E2E4F347}"/>
+    <hyperlink ref="F32" r:id="rId29" xr:uid="{F2165E25-79D9-4521-9261-0FF86CB8CEB1}"/>
+    <hyperlink ref="F11" r:id="rId30" xr:uid="{2459F536-6BF7-4F95-8ED6-65EBE68E0306}"/>
+    <hyperlink ref="F33" r:id="rId31" xr:uid="{A1AFF2B0-3BCF-4EB1-A5D8-3277D679C9A9}"/>
+    <hyperlink ref="G6" r:id="rId32" xr:uid="{A8C35020-1C53-4073-BE6C-0F6933CB1921}"/>
+    <hyperlink ref="G5" r:id="rId33" xr:uid="{A49999D0-0D24-4148-A259-6949303F3996}"/>
+    <hyperlink ref="G7" r:id="rId34" xr:uid="{D90F92BC-9947-4813-8C28-6009DA178051}"/>
+    <hyperlink ref="F26" r:id="rId35" xr:uid="{F3415021-EB69-4CB6-B212-558D2454FF2B}"/>
+    <hyperlink ref="G26" r:id="rId36" xr:uid="{E4EF5DF5-36DD-4B50-AF25-A19F9CE4857A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>